--- a/05-German/DE_work.xlsx
+++ b/05-German/DE_work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="208">
   <si>
     <t>Deutch</t>
   </si>
@@ -630,6 +630,18 @@
   </si>
   <si>
     <t>mutatni</t>
+  </si>
+  <si>
+    <t>eingemeinen</t>
+  </si>
+  <si>
+    <t>megfordul a …</t>
+  </si>
+  <si>
+    <t>glaube ich</t>
+  </si>
+  <si>
+    <t>azt hiszem</t>
   </si>
 </sst>
 </file>
@@ -1699,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1923,6 +1935,22 @@
         <v>203</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
